--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Fn1-Itga8.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Fn1-Itga8.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>19.95578266666667</v>
+        <v>29.223446</v>
       </c>
       <c r="H2">
-        <v>59.867348</v>
+        <v>87.670338</v>
       </c>
       <c r="I2">
-        <v>0.0117373419656925</v>
+        <v>0.0169041244192178</v>
       </c>
       <c r="J2">
-        <v>0.0117373419656925</v>
+        <v>0.0169041244192178</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.3952656666666667</v>
+        <v>1.115279333333333</v>
       </c>
       <c r="N2">
-        <v>1.185797</v>
+        <v>3.345838</v>
       </c>
       <c r="O2">
-        <v>0.02469993039301214</v>
+        <v>0.08670767158519405</v>
       </c>
       <c r="P2">
-        <v>0.02469993039301213</v>
+        <v>0.08670767158519403</v>
       </c>
       <c r="Q2">
-        <v>7.887835739595112</v>
+        <v>32.59230537258266</v>
       </c>
       <c r="R2">
-        <v>70.99052165635599</v>
+        <v>293.330748353244</v>
       </c>
       <c r="S2">
-        <v>0.0002899115295515849</v>
+        <v>0.001465717268576796</v>
       </c>
       <c r="T2">
-        <v>0.0002899115295515848</v>
+        <v>0.001465717268576796</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>19.95578266666667</v>
+        <v>29.223446</v>
       </c>
       <c r="H3">
-        <v>59.867348</v>
+        <v>87.670338</v>
       </c>
       <c r="I3">
-        <v>0.0117373419656925</v>
+        <v>0.0169041244192178</v>
       </c>
       <c r="J3">
-        <v>0.0117373419656925</v>
+        <v>0.0169041244192178</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -617,28 +617,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>3.484068333333334</v>
+        <v>3.484068333333333</v>
       </c>
       <c r="N3">
         <v>10.452205</v>
       </c>
       <c r="O3">
-        <v>0.2177174811148058</v>
+        <v>0.2708697667015328</v>
       </c>
       <c r="P3">
-        <v>0.2177174811148058</v>
+        <v>0.2708697667015328</v>
       </c>
       <c r="Q3">
-        <v>69.52731045581557</v>
+        <v>101.8164827994767</v>
       </c>
       <c r="R3">
-        <v>625.74579410234</v>
+        <v>916.34834519529</v>
       </c>
       <c r="S3">
-        <v>0.002555424527753674</v>
+        <v>0.00457881623772721</v>
       </c>
       <c r="T3">
-        <v>0.002555424527753674</v>
+        <v>0.00457881623772721</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>19.95578266666667</v>
+        <v>29.223446</v>
       </c>
       <c r="H4">
-        <v>59.867348</v>
+        <v>87.670338</v>
       </c>
       <c r="I4">
-        <v>0.0117373419656925</v>
+        <v>0.0169041244192178</v>
       </c>
       <c r="J4">
-        <v>0.0117373419656925</v>
+        <v>0.0169041244192178</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>11.574079</v>
+        <v>8.022733000000001</v>
       </c>
       <c r="N4">
-        <v>34.722237</v>
+        <v>24.068199</v>
       </c>
       <c r="O4">
-        <v>0.7232577220128491</v>
+        <v>0.6237293899283516</v>
       </c>
       <c r="P4">
-        <v>0.723257722012849</v>
+        <v>0.6237293899283515</v>
       </c>
       <c r="Q4">
-        <v>230.9698050908307</v>
+        <v>234.451904597918</v>
       </c>
       <c r="R4">
-        <v>2078.728245817476</v>
+        <v>2110.067141381262</v>
       </c>
       <c r="S4">
-        <v>0.008489123212592571</v>
+        <v>0.01054359921127167</v>
       </c>
       <c r="T4">
-        <v>0.00848912321259257</v>
+        <v>0.01054359921127167</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>19.95578266666667</v>
+        <v>29.223446</v>
       </c>
       <c r="H5">
-        <v>59.867348</v>
+        <v>87.670338</v>
       </c>
       <c r="I5">
-        <v>0.0117373419656925</v>
+        <v>0.0169041244192178</v>
       </c>
       <c r="J5">
-        <v>0.0117373419656925</v>
+        <v>0.0169041244192178</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.5492906666666667</v>
+        <v>0.2404413333333334</v>
       </c>
       <c r="N5">
-        <v>1.647872</v>
+        <v>0.7213240000000001</v>
       </c>
       <c r="O5">
-        <v>0.03432486647933305</v>
+        <v>0.0186931717849216</v>
       </c>
       <c r="P5">
-        <v>0.03432486647933305</v>
+        <v>0.0186931717849216</v>
       </c>
       <c r="Q5">
-        <v>10.96152516482845</v>
+        <v>7.026524320834667</v>
       </c>
       <c r="R5">
-        <v>98.653726483456</v>
+        <v>63.23871888751201</v>
       </c>
       <c r="S5">
-        <v>0.0004028826957946675</v>
+        <v>0.0003159917016421265</v>
       </c>
       <c r="T5">
-        <v>0.0004028826957946675</v>
+        <v>0.0003159917016421264</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>4912.03003</v>
       </c>
       <c r="I6">
-        <v>0.9630320723052701</v>
+        <v>0.9471112884046843</v>
       </c>
       <c r="J6">
-        <v>0.9630320723052702</v>
+        <v>0.9471112884046842</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.3952656666666667</v>
+        <v>1.115279333333333</v>
       </c>
       <c r="N6">
-        <v>1.185797</v>
+        <v>3.345838</v>
       </c>
       <c r="O6">
-        <v>0.02469993039301214</v>
+        <v>0.08670767158519405</v>
       </c>
       <c r="P6">
-        <v>0.02469993039301213</v>
+        <v>0.08670767158519403</v>
       </c>
       <c r="Q6">
-        <v>647.1856081648789</v>
+        <v>1826.095192390571</v>
       </c>
       <c r="R6">
-        <v>5824.67047348391</v>
+        <v>16434.85673151514</v>
       </c>
       <c r="S6">
-        <v>0.0237868251521784</v>
+        <v>0.08212181454962336</v>
       </c>
       <c r="T6">
-        <v>0.0237868251521784</v>
+        <v>0.08212181454962335</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>4912.03003</v>
       </c>
       <c r="I7">
-        <v>0.9630320723052701</v>
+        <v>0.9471112884046843</v>
       </c>
       <c r="J7">
-        <v>0.9630320723052702</v>
+        <v>0.9471112884046842</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -865,28 +865,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>3.484068333333334</v>
+        <v>3.484068333333333</v>
       </c>
       <c r="N7">
         <v>10.452205</v>
       </c>
       <c r="O7">
-        <v>0.2177174811148058</v>
+        <v>0.2708697667015328</v>
       </c>
       <c r="P7">
-        <v>0.2177174811148058</v>
+        <v>0.2708697667015328</v>
       </c>
       <c r="Q7">
-        <v>5704.616093301795</v>
+        <v>5704.616093301794</v>
       </c>
       <c r="R7">
         <v>51341.54483971615</v>
       </c>
       <c r="S7">
-        <v>0.209668917015075</v>
+        <v>0.256543813730565</v>
       </c>
       <c r="T7">
-        <v>0.209668917015075</v>
+        <v>0.256543813730565</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>4912.03003</v>
       </c>
       <c r="I8">
-        <v>0.9630320723052701</v>
+        <v>0.9471112884046843</v>
       </c>
       <c r="J8">
-        <v>0.9630320723052702</v>
+        <v>0.9471112884046842</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>11.574079</v>
+        <v>8.022733000000001</v>
       </c>
       <c r="N8">
-        <v>34.722237</v>
+        <v>24.068199</v>
       </c>
       <c r="O8">
-        <v>0.7232577220128491</v>
+        <v>0.6237293899283516</v>
       </c>
       <c r="P8">
-        <v>0.723257722012849</v>
+        <v>0.6237293899283515</v>
       </c>
       <c r="Q8">
-        <v>18950.74120586412</v>
+        <v>13135.96847289066</v>
       </c>
       <c r="R8">
-        <v>170556.6708527771</v>
+        <v>118223.716256016</v>
       </c>
       <c r="S8">
-        <v>0.6965203828408231</v>
+        <v>0.5907411461109088</v>
       </c>
       <c r="T8">
-        <v>0.696520382840823</v>
+        <v>0.5907411461109086</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>4912.03003</v>
       </c>
       <c r="I9">
-        <v>0.9630320723052701</v>
+        <v>0.9471112884046843</v>
       </c>
       <c r="J9">
-        <v>0.9630320723052702</v>
+        <v>0.9471112884046842</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.5492906666666667</v>
+        <v>0.2404413333333334</v>
       </c>
       <c r="N9">
-        <v>1.647872</v>
+        <v>0.7213240000000001</v>
       </c>
       <c r="O9">
-        <v>0.03432486647933305</v>
+        <v>0.0186931717849216</v>
       </c>
       <c r="P9">
-        <v>0.03432486647933305</v>
+        <v>0.0186931717849216</v>
       </c>
       <c r="Q9">
-        <v>899.3774166217955</v>
+        <v>393.6850165955245</v>
       </c>
       <c r="R9">
-        <v>8094.39674959616</v>
+        <v>3543.16514935972</v>
       </c>
       <c r="S9">
-        <v>0.03305594729719381</v>
+        <v>0.01770451401358719</v>
       </c>
       <c r="T9">
-        <v>0.03305594729719381</v>
+        <v>0.01770451401358718</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>25.39612333333334</v>
+        <v>37.39212666666667</v>
       </c>
       <c r="H10">
-        <v>76.18837000000001</v>
+        <v>112.17638</v>
       </c>
       <c r="I10">
-        <v>0.01493717330687017</v>
+        <v>0.02162924801792661</v>
       </c>
       <c r="J10">
-        <v>0.01493717330687017</v>
+        <v>0.0216292480179266</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.3952656666666667</v>
+        <v>1.115279333333333</v>
       </c>
       <c r="N10">
-        <v>1.185797</v>
+        <v>3.345838</v>
       </c>
       <c r="O10">
-        <v>0.02469993039301214</v>
+        <v>0.08670767158519405</v>
       </c>
       <c r="P10">
-        <v>0.02469993039301213</v>
+        <v>0.08670767158519403</v>
       </c>
       <c r="Q10">
-        <v>10.03821562009889</v>
+        <v>41.70266610071555</v>
       </c>
       <c r="R10">
-        <v>90.34394058089001</v>
+        <v>375.32399490644</v>
       </c>
       <c r="S10">
-        <v>0.0003689471409480521</v>
+        <v>0.00187542173377309</v>
       </c>
       <c r="T10">
-        <v>0.0003689471409480521</v>
+        <v>0.001875421733773089</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>25.39612333333334</v>
+        <v>37.39212666666667</v>
       </c>
       <c r="H11">
-        <v>76.18837000000001</v>
+        <v>112.17638</v>
       </c>
       <c r="I11">
-        <v>0.01493717330687017</v>
+        <v>0.02162924801792661</v>
       </c>
       <c r="J11">
-        <v>0.01493717330687017</v>
+        <v>0.0216292480179266</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1113,28 +1113,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>3.484068333333334</v>
+        <v>3.484068333333333</v>
       </c>
       <c r="N11">
         <v>10.452205</v>
       </c>
       <c r="O11">
-        <v>0.2177174811148058</v>
+        <v>0.2708697667015328</v>
       </c>
       <c r="P11">
-        <v>0.2177174811148058</v>
+        <v>0.2708697667015328</v>
       </c>
       <c r="Q11">
-        <v>88.48182909509445</v>
+        <v>130.2767244353222</v>
       </c>
       <c r="R11">
-        <v>796.3364618558502</v>
+        <v>1172.4905199179</v>
       </c>
       <c r="S11">
-        <v>0.003252083747347088</v>
+        <v>0.005858709364545371</v>
       </c>
       <c r="T11">
-        <v>0.003252083747347088</v>
+        <v>0.00585870936454537</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>25.39612333333334</v>
+        <v>37.39212666666667</v>
       </c>
       <c r="H12">
-        <v>76.18837000000001</v>
+        <v>112.17638</v>
       </c>
       <c r="I12">
-        <v>0.01493717330687017</v>
+        <v>0.02162924801792661</v>
       </c>
       <c r="J12">
-        <v>0.01493717330687017</v>
+        <v>0.0216292480179266</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>11.574079</v>
+        <v>8.022733000000001</v>
       </c>
       <c r="N12">
-        <v>34.722237</v>
+        <v>24.068199</v>
       </c>
       <c r="O12">
-        <v>0.7232577220128491</v>
+        <v>0.6237293899283516</v>
       </c>
       <c r="P12">
-        <v>0.723257722012849</v>
+        <v>0.6237293899283515</v>
       </c>
       <c r="Q12">
-        <v>293.9367377537433</v>
+        <v>299.9870485488467</v>
       </c>
       <c r="R12">
-        <v>2645.43063978369</v>
+        <v>2699.88343693962</v>
       </c>
       <c r="S12">
-        <v>0.01080342593923806</v>
+        <v>0.01349079767083037</v>
       </c>
       <c r="T12">
-        <v>0.01080342593923806</v>
+        <v>0.01349079767083037</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>25.39612333333334</v>
+        <v>37.39212666666667</v>
       </c>
       <c r="H13">
-        <v>76.18837000000001</v>
+        <v>112.17638</v>
       </c>
       <c r="I13">
-        <v>0.01493717330687017</v>
+        <v>0.02162924801792661</v>
       </c>
       <c r="J13">
-        <v>0.01493717330687017</v>
+        <v>0.0216292480179266</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.5492906666666667</v>
+        <v>0.2404413333333334</v>
       </c>
       <c r="N13">
-        <v>1.647872</v>
+        <v>0.7213240000000001</v>
       </c>
       <c r="O13">
-        <v>0.03432486647933305</v>
+        <v>0.0186931717849216</v>
       </c>
       <c r="P13">
-        <v>0.03432486647933305</v>
+        <v>0.0186931717849216</v>
       </c>
       <c r="Q13">
-        <v>13.94985351651556</v>
+        <v>8.990612791902224</v>
       </c>
       <c r="R13">
-        <v>125.54868164864</v>
+        <v>80.91551512712002</v>
       </c>
       <c r="S13">
-        <v>0.0005127164793369762</v>
+        <v>0.0004043192487777771</v>
       </c>
       <c r="T13">
-        <v>0.0005127164793369763</v>
+        <v>0.000404319248777777</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>17.50081933333334</v>
+        <v>24.817167</v>
       </c>
       <c r="H14">
-        <v>52.502458</v>
+        <v>74.45150100000001</v>
       </c>
       <c r="I14">
-        <v>0.01029341242216722</v>
+        <v>0.01435533915817136</v>
       </c>
       <c r="J14">
-        <v>0.01029341242216722</v>
+        <v>0.01435533915817136</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.3952656666666667</v>
+        <v>1.115279333333333</v>
       </c>
       <c r="N14">
-        <v>1.185797</v>
+        <v>3.345838</v>
       </c>
       <c r="O14">
-        <v>0.02469993039301214</v>
+        <v>0.08670767158519405</v>
       </c>
       <c r="P14">
-        <v>0.02469993039301213</v>
+        <v>0.08670767158519403</v>
       </c>
       <c r="Q14">
-        <v>6.91747302100289</v>
+        <v>27.678073466982</v>
       </c>
       <c r="R14">
-        <v>62.25725718902601</v>
+        <v>249.102661202838</v>
       </c>
       <c r="S14">
-        <v>0.0002542465703340967</v>
+        <v>0.001244718033220798</v>
       </c>
       <c r="T14">
-        <v>0.0002542465703340968</v>
+        <v>0.001244718033220798</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>17.50081933333334</v>
+        <v>24.817167</v>
       </c>
       <c r="H15">
-        <v>52.502458</v>
+        <v>74.45150100000001</v>
       </c>
       <c r="I15">
-        <v>0.01029341242216722</v>
+        <v>0.01435533915817136</v>
       </c>
       <c r="J15">
-        <v>0.01029341242216722</v>
+        <v>0.01435533915817136</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1361,28 +1361,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>3.484068333333334</v>
+        <v>3.484068333333333</v>
       </c>
       <c r="N15">
         <v>10.452205</v>
       </c>
       <c r="O15">
-        <v>0.2177174811148058</v>
+        <v>0.2708697667015328</v>
       </c>
       <c r="P15">
-        <v>0.2177174811148058</v>
+        <v>0.2708697667015328</v>
       </c>
       <c r="Q15">
-        <v>60.97405044665446</v>
+        <v>86.46470566774499</v>
       </c>
       <c r="R15">
-        <v>548.7664540198901</v>
+        <v>778.182351009705</v>
       </c>
       <c r="S15">
-        <v>0.002241055824630099</v>
+        <v>0.003888427368695255</v>
       </c>
       <c r="T15">
-        <v>0.002241055824630099</v>
+        <v>0.003888427368695254</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>17.50081933333334</v>
+        <v>24.817167</v>
       </c>
       <c r="H16">
-        <v>52.502458</v>
+        <v>74.45150100000001</v>
       </c>
       <c r="I16">
-        <v>0.01029341242216722</v>
+        <v>0.01435533915817136</v>
       </c>
       <c r="J16">
-        <v>0.01029341242216722</v>
+        <v>0.01435533915817136</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>11.574079</v>
+        <v>8.022733000000001</v>
       </c>
       <c r="N16">
-        <v>34.722237</v>
+        <v>24.068199</v>
       </c>
       <c r="O16">
-        <v>0.7232577220128491</v>
+        <v>0.6237293899283516</v>
       </c>
       <c r="P16">
-        <v>0.723257722012849</v>
+        <v>0.6237293899283515</v>
       </c>
       <c r="Q16">
-        <v>202.5558655287273</v>
+        <v>199.101504657411</v>
       </c>
       <c r="R16">
-        <v>1823.002789758546</v>
+        <v>1791.913541916699</v>
       </c>
       <c r="S16">
-        <v>0.007444790020195426</v>
+        <v>0.008953846935340799</v>
       </c>
       <c r="T16">
-        <v>0.007444790020195426</v>
+        <v>0.008953846935340798</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>17.50081933333334</v>
+        <v>24.817167</v>
       </c>
       <c r="H17">
-        <v>52.502458</v>
+        <v>74.45150100000001</v>
       </c>
       <c r="I17">
-        <v>0.01029341242216722</v>
+        <v>0.01435533915817136</v>
       </c>
       <c r="J17">
-        <v>0.01029341242216722</v>
+        <v>0.01435533915817136</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.5492906666666667</v>
+        <v>0.2404413333333334</v>
       </c>
       <c r="N17">
-        <v>1.647872</v>
+        <v>0.7213240000000001</v>
       </c>
       <c r="O17">
-        <v>0.03432486647933305</v>
+        <v>0.0186931717849216</v>
       </c>
       <c r="P17">
-        <v>0.03432486647933305</v>
+        <v>0.0186931717849216</v>
       </c>
       <c r="Q17">
-        <v>9.613036718819558</v>
+        <v>5.967072723036001</v>
       </c>
       <c r="R17">
-        <v>86.51733046937601</v>
+        <v>53.70365450732401</v>
       </c>
       <c r="S17">
-        <v>0.0003533200070075979</v>
+        <v>0.0002683468209145091</v>
       </c>
       <c r="T17">
-        <v>0.000353320007007598</v>
+        <v>0.000268346820914509</v>
       </c>
     </row>
   </sheetData>
